--- a/output/freezer_03_shelf2/c4_exceldata.xlsx
+++ b/output/freezer_03_shelf2/c4_exceldata.xlsx
@@ -28,7 +28,7 @@
     <t>F3-S2-R1-D1-FB1</t>
   </si>
   <si>
-    <t>DRW562</t>
+    <t>DRW611</t>
   </si>
   <si>
     <t>F3-S2-R1-D1-FB2</t>
@@ -43,7 +43,7 @@
     <t>F3-S2-R1-D2-FB1</t>
   </si>
   <si>
-    <t>DRW563</t>
+    <t>DRW612</t>
   </si>
   <si>
     <t>F3-S2-R1-D2-FB2</t>
@@ -58,7 +58,7 @@
     <t>F3-S2-R1-D3-FB1</t>
   </si>
   <si>
-    <t>DRW564</t>
+    <t>DRW613</t>
   </si>
   <si>
     <t>F3-S2-R1-D3-FB2</t>
@@ -73,7 +73,7 @@
     <t>F3-S2-R1-D4-FB1</t>
   </si>
   <si>
-    <t>DRW565</t>
+    <t>DRW614</t>
   </si>
   <si>
     <t>F3-S2-R1-D4-FB2</t>
@@ -88,7 +88,7 @@
     <t>F3-S2-R1-D5-FB1</t>
   </si>
   <si>
-    <t>DRW566</t>
+    <t>DRW615</t>
   </si>
   <si>
     <t>F3-S2-R1-D5-FB2</t>
@@ -103,7 +103,7 @@
     <t>F3-S2-R1-D6-FB1</t>
   </si>
   <si>
-    <t>DRW567</t>
+    <t>DRW616</t>
   </si>
   <si>
     <t>F3-S2-R1-D6-FB2</t>
@@ -118,7 +118,7 @@
     <t>F3-S2-R1-D7-FB1</t>
   </si>
   <si>
-    <t>DRW568</t>
+    <t>DRW617</t>
   </si>
   <si>
     <t>F3-S2-R1-D7-FB2</t>
@@ -133,7 +133,7 @@
     <t>F3-S2-R2-D1-FB1</t>
   </si>
   <si>
-    <t>DRW569</t>
+    <t>DRW618</t>
   </si>
   <si>
     <t>F3-S2-R2-D1-FB2</t>
@@ -148,7 +148,7 @@
     <t>F3-S2-R2-D2-FB1</t>
   </si>
   <si>
-    <t>DRW570</t>
+    <t>DRW619</t>
   </si>
   <si>
     <t>F3-S2-R2-D2-FB2</t>
@@ -163,7 +163,7 @@
     <t>F3-S2-R2-D3-FB1</t>
   </si>
   <si>
-    <t>DRW571</t>
+    <t>DRW620</t>
   </si>
   <si>
     <t>F3-S2-R2-D3-FB2</t>
@@ -178,7 +178,7 @@
     <t>F3-S2-R2-D4-FB1</t>
   </si>
   <si>
-    <t>DRW572</t>
+    <t>DRW621</t>
   </si>
   <si>
     <t>F3-S2-R2-D4-FB2</t>
@@ -193,7 +193,7 @@
     <t>F3-S2-R2-D5-FB1</t>
   </si>
   <si>
-    <t>DRW573</t>
+    <t>DRW622</t>
   </si>
   <si>
     <t>F3-S2-R2-D5-FB2</t>
@@ -208,7 +208,7 @@
     <t>F3-S2-R2-D6-FB1</t>
   </si>
   <si>
-    <t>DRW574</t>
+    <t>DRW623</t>
   </si>
   <si>
     <t>F3-S2-R2-D6-FB2</t>
@@ -223,7 +223,7 @@
     <t>F3-S2-R2-D7-FB1</t>
   </si>
   <si>
-    <t>DRW575</t>
+    <t>DRW624</t>
   </si>
   <si>
     <t>F3-S2-R2-D7-FB2</t>
@@ -238,7 +238,7 @@
     <t>F3-S2-R3-D1-FB1</t>
   </si>
   <si>
-    <t>DRW576</t>
+    <t>DRW625</t>
   </si>
   <si>
     <t>F3-S2-R3-D1-FB2</t>
@@ -253,7 +253,7 @@
     <t>F3-S2-R3-D2-FB1</t>
   </si>
   <si>
-    <t>DRW577</t>
+    <t>DRW626</t>
   </si>
   <si>
     <t>F3-S2-R3-D2-FB2</t>
@@ -268,7 +268,7 @@
     <t>F3-S2-R3-D3-FB1</t>
   </si>
   <si>
-    <t>DRW578</t>
+    <t>DRW627</t>
   </si>
   <si>
     <t>F3-S2-R3-D3-FB2</t>
@@ -283,7 +283,7 @@
     <t>F3-S2-R3-D4-FB1</t>
   </si>
   <si>
-    <t>DRW579</t>
+    <t>DRW628</t>
   </si>
   <si>
     <t>F3-S2-R3-D4-FB2</t>
@@ -298,7 +298,7 @@
     <t>F3-S2-R3-D5-FB1</t>
   </si>
   <si>
-    <t>DRW580</t>
+    <t>DRW629</t>
   </si>
   <si>
     <t>F3-S2-R3-D5-FB2</t>
@@ -313,7 +313,7 @@
     <t>F3-S2-R3-D6-FB1</t>
   </si>
   <si>
-    <t>DRW581</t>
+    <t>DRW630</t>
   </si>
   <si>
     <t>F3-S2-R3-D6-FB2</t>
@@ -328,7 +328,7 @@
     <t>F3-S2-R3-D7-FB1</t>
   </si>
   <si>
-    <t>DRW582</t>
+    <t>DRW631</t>
   </si>
   <si>
     <t>F3-S2-R3-D7-FB2</t>
@@ -343,7 +343,7 @@
     <t>F3-S2-R4-D1-FB1</t>
   </si>
   <si>
-    <t>DRW583</t>
+    <t>DRW632</t>
   </si>
   <si>
     <t>F3-S2-R4-D1-FB2</t>
@@ -358,7 +358,7 @@
     <t>F3-S2-R4-D2-FB1</t>
   </si>
   <si>
-    <t>DRW584</t>
+    <t>DRW633</t>
   </si>
   <si>
     <t>F3-S2-R4-D2-FB2</t>
@@ -373,7 +373,7 @@
     <t>F3-S2-R4-D3-FB1</t>
   </si>
   <si>
-    <t>DRW585</t>
+    <t>DRW634</t>
   </si>
   <si>
     <t>F3-S2-R4-D3-FB2</t>
@@ -388,7 +388,7 @@
     <t>F3-S2-R4-D4-FB1</t>
   </si>
   <si>
-    <t>DRW586</t>
+    <t>DRW635</t>
   </si>
   <si>
     <t>F3-S2-R4-D4-FB2</t>
@@ -403,7 +403,7 @@
     <t>F3-S2-R4-D5-FB1</t>
   </si>
   <si>
-    <t>DRW587</t>
+    <t>DRW636</t>
   </si>
   <si>
     <t>F3-S2-R4-D5-FB2</t>
@@ -418,7 +418,7 @@
     <t>F3-S2-R4-D6-FB1</t>
   </si>
   <si>
-    <t>DRW588</t>
+    <t>DRW637</t>
   </si>
   <si>
     <t>F3-S2-R4-D6-FB2</t>
@@ -433,7 +433,7 @@
     <t>F3-S2-R4-D7-FB1</t>
   </si>
   <si>
-    <t>DRW589</t>
+    <t>DRW638</t>
   </si>
   <si>
     <t>F3-S2-R4-D7-FB2</t>
@@ -448,7 +448,7 @@
     <t>F3-S2-R5-D1-FB1</t>
   </si>
   <si>
-    <t>DRW590</t>
+    <t>DRW639</t>
   </si>
   <si>
     <t>F3-S2-R5-D1-FB2</t>
@@ -463,7 +463,7 @@
     <t>F3-S2-R5-D2-FB1</t>
   </si>
   <si>
-    <t>DRW591</t>
+    <t>DRW640</t>
   </si>
   <si>
     <t>F3-S2-R5-D2-FB2</t>
@@ -478,7 +478,7 @@
     <t>F3-S2-R5-D3-FB1</t>
   </si>
   <si>
-    <t>DRW592</t>
+    <t>DRW641</t>
   </si>
   <si>
     <t>F3-S2-R5-D3-FB2</t>
@@ -493,7 +493,7 @@
     <t>F3-S2-R5-D4-FB1</t>
   </si>
   <si>
-    <t>DRW593</t>
+    <t>DRW642</t>
   </si>
   <si>
     <t>F3-S2-R5-D4-FB2</t>
@@ -508,7 +508,7 @@
     <t>F3-S2-R5-D5-FB1</t>
   </si>
   <si>
-    <t>DRW594</t>
+    <t>DRW643</t>
   </si>
   <si>
     <t>F3-S2-R5-D5-FB2</t>
@@ -523,7 +523,7 @@
     <t>F3-S2-R5-D6-FB1</t>
   </si>
   <si>
-    <t>DRW595</t>
+    <t>DRW644</t>
   </si>
   <si>
     <t>F3-S2-R5-D6-FB2</t>
@@ -538,7 +538,7 @@
     <t>F3-S2-R5-D7-FB1</t>
   </si>
   <si>
-    <t>DRW596</t>
+    <t>DRW645</t>
   </si>
   <si>
     <t>F3-S2-R5-D7-FB2</t>
